--- a/programa2023.xlsx
+++ b/programa2023.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>Ponente</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Errores estadísticos habituales en investigación</t>
   </si>
   <si>
-    <t>Metodos de matching</t>
-  </si>
-  <si>
     <t>Isaac Subirana</t>
   </si>
   <si>
@@ -105,13 +102,19 @@
     <t>Febrero</t>
   </si>
   <si>
-    <t>Carles Forné</t>
-  </si>
-  <si>
     <t>Análisis de datos metabolómicos</t>
   </si>
   <si>
     <t>Otros temas de interés</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Pendiente confirmación C. Forné</t>
+  </si>
+  <si>
+    <t>Métodos de matching</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +473,7 @@
     <col min="5" max="7" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -492,8 +495,11 @@
       <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -509,11 +515,14 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -529,11 +538,14 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G3" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -541,7 +553,7 @@
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>44908</v>
@@ -549,16 +561,19 @@
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G4" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -567,24 +582,24 @@
         <v>44943</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="G5" s="1">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>17</v>
@@ -592,10 +607,13 @@
       <c r="G6" s="1">
         <v>2023</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -613,12 +631,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
@@ -630,9 +648,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -647,12 +665,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -664,12 +682,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/programa2023.xlsx
+++ b/programa2023.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="28515" windowHeight="13350"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Ponente</t>
   </si>
@@ -115,13 +115,19 @@
   </si>
   <si>
     <t>Métodos de matching</t>
+  </si>
+  <si>
+    <t>Modelos Mixtos</t>
+  </si>
+  <si>
+    <t>Julio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,7 +253,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -282,7 +287,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,14 +462,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
@@ -473,7 +477,7 @@
     <col min="5" max="7" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -499,7 +503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,7 +526,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -545,15 +549,15 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>44908</v>
@@ -565,21 +569,21 @@
         <v>17</v>
       </c>
       <c r="G4" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
-        <v>44943</v>
+        <v>44936</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -591,7 +595,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -611,7 +615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -631,12 +635,15 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
@@ -648,12 +655,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>9</v>
@@ -665,12 +672,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>10</v>
@@ -682,39 +689,59 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/programa2023.xlsx
+++ b/programa2023.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="28515" windowHeight="13350"/>
@@ -117,17 +117,17 @@
     <t>Métodos de matching</t>
   </si>
   <si>
-    <t>Modelos Mixtos</t>
-  </si>
-  <si>
     <t>Julio</t>
+  </si>
+  <si>
+    <t>Modelos mixtos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +253,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -287,6 +288,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,14 +464,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
@@ -477,7 +479,7 @@
     <col min="5" max="7" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -503,7 +505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -526,7 +528,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -549,7 +551,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -572,7 +574,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -595,12 +597,18 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44964</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>27</v>
@@ -611,13 +619,10 @@
       <c r="G6" s="1">
         <v>2023</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -635,15 +640,12 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
@@ -654,8 +656,11 @@
       <c r="G8" s="1">
         <v>2023</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -672,7 +677,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -689,7 +694,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -697,7 +702,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>17</v>
@@ -706,7 +711,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -724,24 +729,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/programa2023.xlsx
+++ b/programa2023.xlsx
@@ -468,7 +468,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>44964</v>
+        <v>44971</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>27</v>

--- a/programa2023.xlsx
+++ b/programa2023.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="28515" windowHeight="13350"/>
@@ -126,8 +126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,7 +253,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -288,7 +287,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,14 +462,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="34.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
@@ -479,7 +477,7 @@
     <col min="5" max="7" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -505,7 +503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -528,7 +526,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -551,7 +549,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -574,7 +572,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
@@ -597,7 +595,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
@@ -608,7 +606,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>44971</v>
+        <v>44972</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>27</v>
@@ -620,7 +618,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>7</v>
       </c>
@@ -640,7 +638,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>6</v>
       </c>
@@ -660,7 +658,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
@@ -677,7 +675,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -694,7 +692,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
@@ -711,7 +709,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
@@ -729,24 +727,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/programa2023.xlsx
+++ b/programa2023.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Ponente</t>
   </si>
@@ -39,12 +39,6 @@
     <t>mes</t>
   </si>
   <si>
-    <t>Marzo</t>
-  </si>
-  <si>
-    <t>Abril</t>
-  </si>
-  <si>
     <t>Mayo</t>
   </si>
   <si>
@@ -60,9 +54,6 @@
     <t>Laura Muñoz</t>
   </si>
   <si>
-    <t>Métodos para evaluar el impacto</t>
-  </si>
-  <si>
     <t>Albert Roso</t>
   </si>
   <si>
@@ -117,10 +108,16 @@
     <t>Métodos de matching</t>
   </si>
   <si>
-    <t>Julio</t>
-  </si>
-  <si>
     <t>Modelos mixtos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aurelio Tobias </t>
+  </si>
+  <si>
+    <t>Series temporales</t>
+  </si>
+  <si>
+    <t>Paseando por un proyecto de investigación</t>
   </si>
 </sst>
 </file>
@@ -463,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -479,10 +476,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -494,13 +491,13 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -508,10 +505,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2">
         <v>44859</v>
@@ -520,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1">
         <v>2022</v>
@@ -531,10 +528,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
         <v>44887</v>
@@ -543,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>2022</v>
@@ -554,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -566,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1">
         <v>2023</v>
@@ -577,19 +574,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2">
         <v>44936</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1">
         <v>2023</v>
@@ -600,19 +597,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
         <v>44972</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1">
         <v>2023</v>
@@ -623,16 +620,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45062</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1">
         <v>2023</v>
@@ -643,19 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1">
         <v>2023</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -663,13 +666,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1">
         <v>2023</v>
@@ -680,13 +680,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1">
         <v>2023</v>
@@ -697,13 +694,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1">
         <v>2023</v>
@@ -714,7 +708,15 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/programa2023.xlsx
+++ b/programa2023.xlsx
@@ -463,7 +463,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -617,7 +617,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
